--- a/public/data/soil/soil_table_niger.xlsx
+++ b/public/data/soil/soil_table_niger.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>68134.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.47</v>
+        <v>64.787</v>
       </c>
     </row>
     <row r="3">
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="4">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>190456</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>48.157</v>
+        <v>311.675</v>
       </c>
     </row>
     <row r="5">
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>201006.7</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>244.531</v>
+        <v>236.544</v>
       </c>
     </row>
     <row r="6">
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>337118.7</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>237.869</v>
+        <v>257.19</v>
       </c>
     </row>
     <row r="7">
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>134330.9</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>73.594</v>
+        <v>109.266</v>
       </c>
     </row>
     <row r="8">
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>4411</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>3388.5</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>249894.4</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.182</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>364.976</v>
+        <v>363.977</v>
       </c>
     </row>
     <row r="9">
@@ -979,25 +979,25 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2498.6</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>468160.9</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4.119</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>610.585</v>
+        <v>647.41</v>
       </c>
     </row>
     <row r="10">
@@ -1014,25 +1014,25 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2030.6</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>400186.3</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2.827</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>441.059</v>
+        <v>443.654</v>
       </c>
     </row>
     <row r="11">
@@ -1049,25 +1049,25 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>833.4</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>212997.5</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.639</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>353.851</v>
+        <v>352.779</v>
       </c>
     </row>
     <row r="12">
@@ -1084,25 +1084,25 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>11323.6</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>176878.2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>14.184</v>
+        <v>4.393</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>197.961</v>
+        <v>217.852</v>
       </c>
     </row>
     <row r="13">
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>179067.5</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>355.356</v>
+        <v>356.883</v>
       </c>
     </row>
     <row r="14">
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>697241.7</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>753.36</v>
+        <v>751.724</v>
       </c>
     </row>
     <row r="15">
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>282238</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>478.661</v>
+        <v>463.276</v>
       </c>
     </row>
     <row r="16">
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>224000.5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>379.769</v>
+        <v>378.798</v>
       </c>
     </row>
     <row r="17">
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>363444.6</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>489.799</v>
+        <v>573.281</v>
       </c>
     </row>
     <row r="18">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>296968.4</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>465.897</v>
+        <v>471.242</v>
       </c>
     </row>
     <row r="19">
@@ -1329,25 +1329,25 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1616.7</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>12996.3</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.759</v>
+        <v>9.643</v>
       </c>
     </row>
     <row r="20">
@@ -1361,28 +1361,28 @@
         <v>51</v>
       </c>
       <c r="D20" t="n">
-        <v>123.1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>719.8</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>18533.6</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>164106.7</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.398</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>53.952</v>
+        <v>51.228</v>
       </c>
       <c r="K20" t="n">
-        <v>396.206</v>
+        <v>460.049</v>
       </c>
     </row>
     <row r="21">
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>180702.9</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>459.601</v>
+        <v>461.825</v>
       </c>
     </row>
     <row r="22">
@@ -1434,25 +1434,25 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.8</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>8922.1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>175848.6</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.358</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>18.782</v>
+        <v>14.612</v>
       </c>
       <c r="K22" t="n">
-        <v>387.063</v>
+        <v>438.374</v>
       </c>
     </row>
     <row r="23">
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>173846.3</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>411.872</v>
+        <v>444.735</v>
       </c>
     </row>
     <row r="24">
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>229628.9</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>609.395</v>
+        <v>669.671</v>
       </c>
     </row>
     <row r="25">
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>255267.2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>521.587</v>
+        <v>582.204</v>
       </c>
     </row>
     <row r="26">
@@ -1574,25 +1574,25 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>20.5</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>769491.7</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>668.763</v>
+        <v>788.929</v>
       </c>
     </row>
     <row r="27">
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>39508.7</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>563689.7</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>42.42</v>
+        <v>14.018</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>473.751</v>
+        <v>547.372</v>
       </c>
     </row>
     <row r="28">
@@ -1644,25 +1644,25 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>86662.8</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>5924.3</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>222664.3</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>104.67</v>
+        <v>91.782</v>
       </c>
       <c r="J28" t="n">
-        <v>3.568</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>282.273</v>
+        <v>291.692</v>
       </c>
     </row>
     <row r="29">
@@ -1679,25 +1679,25 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>82371.4</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>380483.1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>57.679</v>
+        <v>48.759</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>284.084</v>
+        <v>353.722</v>
       </c>
     </row>
     <row r="30">
@@ -1714,25 +1714,25 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>36593.3</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>11551.1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>502578.4</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>33.93</v>
+        <v>13.99</v>
       </c>
       <c r="J30" t="n">
-        <v>13.938</v>
+        <v>3.82</v>
       </c>
       <c r="K30" t="n">
-        <v>418.018</v>
+        <v>467.253</v>
       </c>
     </row>
     <row r="31">
@@ -1749,25 +1749,25 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>3867.2</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>465447.5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>5.928</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>732.238</v>
+        <v>805.756</v>
       </c>
     </row>
     <row r="32">
@@ -1784,25 +1784,25 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>11202.1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>195262.2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>9.093</v>
+        <v>5.072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>239.233</v>
+        <v>272.043</v>
       </c>
     </row>
     <row r="33">
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>844218.3</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1837,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>396.76</v>
+        <v>405.682</v>
       </c>
     </row>
     <row r="34">
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>461002.7</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>955.733</v>
+        <v>980.633</v>
       </c>
     </row>
     <row r="35">
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>134909.9</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>367.599</v>
+        <v>328.953</v>
       </c>
     </row>
     <row r="36">
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>660052.7</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1206.168</v>
+        <v>1223.924</v>
       </c>
     </row>
     <row r="37">
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>578380.7</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>355.843</v>
+        <v>526.344</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_niger.xlsx
+++ b/public/data/soil/soil_table_niger.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>267.9</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3388.8</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>90655.4</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>180429.4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>35277.9</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>7023.7</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>557794</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>835160.4</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>833082</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>486527.3</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1084,13 +1084,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>7023.7</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>437091.5</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>483235.6</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1651164.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>770747.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>577995.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>985943.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>883818.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>18733.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>43274.9</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>511995.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>506753.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1437,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>17573.1</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>442831.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>399966.6</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>630279.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>383165.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>243189.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>6253.1</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>474710.3</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1644,13 +1644,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>87078.1</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>5680.8</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>484983.2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1679,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>60239.8</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>157222.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1714,13 +1714,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>26185.7</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>5680.8</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>899436.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1749,13 +1749,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2456.3</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>629271.2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1784,13 +1784,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>11158.5</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>150894.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1011248.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>763251.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>288977.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1930,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1238027.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>873259.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
